--- a/info/INFO-skilled-FLYabroad.xlsx
+++ b/info/INFO-skilled-FLYabroad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4695" windowWidth="19320" windowHeight="6420"/>
+    <workbookView xWindow="315" yWindow="4695" windowWidth="19320" windowHeight="6420" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="总括" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="296">
   <si>
     <t>姓氏</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2216,14 +2216,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FLYabroad  @ Copyright 2005-2012</t>
+    <t>登陆或到达过的该国城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLYabroad  @Copyright 飞出国 From 2005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2244,12 +2249,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -2280,13 +2279,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2294,37 +2286,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2343,48 +2304,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2492,7 +2413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2605,18 +2526,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2626,10 +2567,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2647,16 +2588,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2677,13 +2618,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -2698,16 +2639,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2716,13 +2657,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2731,10 +2672,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2743,25 +2684,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2770,67 +2711,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2839,13 +2783,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2857,19 +2801,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2881,13 +2825,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2896,19 +2846,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2920,22 +2873,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2944,34 +2894,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3356,8 +3306,8 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3369,12 +3319,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
@@ -3573,72 +3523,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="42"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="69"/>
     </row>
     <row r="23" spans="1:4" ht="40.5" customHeight="1">
       <c r="A23" s="51" t="s">
         <v>239</v>
       </c>
       <c r="B23" s="43"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="85"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="73" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
     </row>
     <row r="30" spans="1:4" ht="14.25">
-      <c r="A30" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
+      <c r="A30" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3679,7 +3629,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3694,17 +3644,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
@@ -3832,17 +3782,17 @@
       <c r="I10" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
@@ -3970,30 +3920,30 @@
       <c r="I22" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
+      <c r="A26" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4013,7 +3963,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4030,17 +3980,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -4160,17 +4110,17 @@
       <c r="I10" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:9" ht="27">
       <c r="A13" s="27" t="s">
@@ -4290,30 +4240,30 @@
       <c r="I21" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
+      <c r="A24" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4330,10 +4280,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="A15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4341,32 +4291,34 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="7" width="20.375" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:12" ht="14.25">
+      <c r="A1" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+    </row>
+    <row r="2" spans="1:12" ht="27">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>114</v>
@@ -4374,32 +4326,35 @@
       <c r="C2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -4413,8 +4368,9 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4428,8 +4384,9 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4443,8 +4400,9 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4458,8 +4416,9 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -4473,22 +4432,23 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.25">
-      <c r="A9" s="116" t="s">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25">
+      <c r="A9" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>128</v>
@@ -4518,7 +4478,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="24" t="s">
         <v>137</v>
       </c>
@@ -4532,7 +4492,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="24" t="s">
         <v>138</v>
       </c>
@@ -4546,7 +4506,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="24" t="s">
         <v>139</v>
       </c>
@@ -4560,7 +4520,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="24" t="s">
         <v>140</v>
       </c>
@@ -4574,25 +4534,25 @@
       <c r="I14" s="19"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25">
-      <c r="A16" s="116" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="120"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25">
+      <c r="A16" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
@@ -4660,15 +4620,15 @@
       <c r="G21" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
@@ -4730,15 +4690,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="116" t="s">
+      <c r="A29" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="24"/>
@@ -4784,16 +4744,16 @@
       <c r="G32" s="50"/>
     </row>
     <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="116" t="s">
         <v>261</v>
       </c>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="24"/>
@@ -4844,23 +4804,23 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A37" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+      <c r="A37" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
@@ -4876,8 +4836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4889,12 +4849,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
@@ -5043,28 +5003,28 @@
       <c r="D16" s="1"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
     </row>
     <row r="20" spans="1:4" ht="14.25">
-      <c r="A20" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5097,8 +5057,8 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5"/>
@@ -5108,13 +5068,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
@@ -5436,22 +5396,22 @@
       <c r="E34" s="7"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
     </row>
     <row r="37" spans="1:5" ht="14.25">
-      <c r="A37" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
+      <c r="A37" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5472,8 +5432,8 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5491,19 +5451,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1">
       <c r="A2" s="59" t="s">
@@ -5637,72 +5597,72 @@
       <c r="A10" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="15" spans="1:11" ht="14.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="1:11" s="60" customFormat="1">
       <c r="A16" s="59" t="s">
@@ -5836,57 +5796,57 @@
       <c r="A24" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="5"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="14"/>
@@ -5902,38 +5862,37 @@
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
     </row>
     <row r="30" spans="1:11" ht="14.25">
-      <c r="A30" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
+      <c r="A30" s="89" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B27:K27"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A15:K15"/>
@@ -5945,6 +5904,7 @@
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5977,31 +5937,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="F2" s="101" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="F2" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6130,44 +6090,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="240.75" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="F13" s="101" t="s">
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="F13" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6296,32 +6256,38 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="F13:I13"/>
@@ -6329,12 +6295,6 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6367,31 +6327,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="F2" s="101" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="F2" s="97" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6520,44 +6480,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="246" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="F13" s="101" t="s">
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="F13" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6686,38 +6646,32 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -6725,6 +6679,12 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6757,31 +6717,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="F2" s="101" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="F2" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6910,44 +6870,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:9" ht="252" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="F13" s="101" t="s">
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="F13" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -7076,38 +7036,32 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="F22:I22"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="A1:I1"/>
@@ -7115,6 +7069,12 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7126,8 +7086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7145,17 +7105,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="27">
@@ -7291,17 +7251,17 @@
       <c r="J9" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="27">
       <c r="A12" s="2"/>
@@ -7426,30 +7386,30 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
     </row>
     <row r="23" spans="1:9" ht="27">
       <c r="A23" s="2"/>
@@ -7550,17 +7510,17 @@
       <c r="I28" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="27">
       <c r="A31" s="2"/>
@@ -7661,26 +7621,26 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="14.25">
-      <c r="A37" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
+      <c r="A37" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A37:I37"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -7693,8 +7653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7709,16 +7669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -7871,25 +7831,25 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="110"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="45" t="s">
         <v>252</v>
       </c>
@@ -7907,8 +7867,8 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
       <c r="F13" s="47"/>
@@ -7920,8 +7880,8 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
       <c r="F14" s="47"/>
@@ -7933,8 +7893,8 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
       <c r="F15" s="47"/>
@@ -7945,16 +7905,16 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -8107,26 +8067,26 @@
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="14.25">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="109" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="112" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="110"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="45" t="s">
         <v>252</v>
       </c>
@@ -8144,8 +8104,8 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
       <c r="F28" s="47"/>
@@ -8157,8 +8117,8 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
       <c r="F29" s="47"/>
@@ -8170,8 +8130,8 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
       <c r="F30" s="47"/>
@@ -8182,31 +8142,31 @@
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="110" t="s">
         <v>247</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A32" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
+      <c r="A32" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -8447,8 +8407,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:H1"/>
@@ -8461,6 +8419,8 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -8474,7 +8434,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A25" sqref="A25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8487,15 +8447,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -8649,15 +8609,15 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -8823,29 +8783,29 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A25" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
+      <c r="A25" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>

--- a/info/INFO-skilled-FLYabroad.xlsx
+++ b/info/INFO-skilled-FLYabroad.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="4695" windowWidth="19320" windowHeight="6420" activeTab="12"/>
+    <workbookView xWindow="315" yWindow="4695" windowWidth="19320" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="总括" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,13 @@
     <sheet name="成员" sheetId="8" r:id="rId10"/>
     <sheet name="亲属" sheetId="12" r:id="rId11"/>
     <sheet name="其他" sheetId="11" r:id="rId12"/>
-    <sheet name="雇主" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="272">
   <si>
     <t>姓氏</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -517,14 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主申请人高等教育信息（中专，技校，专、本、硕、博，从最近写起）- FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副申请人高等教育信息（中专，技校，专、本、硕、博，从最近写起）- FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -717,14 +708,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>申请人服兵役信息（如果有）- FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主、副申请前配偶信息（如果有）- FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主申请工作经历（18周岁后工作经历，从最近的写起） - FLYabroad 信息表格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -738,10 +721,6 @@
   </si>
   <si>
     <t>（续）主申请近10年工作职责信息（请如实、详实填写核心职责） - FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主申请近10年工作职责信息（请如实、详实填写核心职责） - FLYabroad 信息表格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -841,126 +820,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Operating Name 公司运营名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mailing Address 公司通信地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office/Location Address 办公室地址</t>
-  </si>
-  <si>
-    <t>Employer Contact Name 联系人</t>
-  </si>
-  <si>
-    <t>Title 头衔称呼</t>
-  </si>
-  <si>
-    <t>Phone 公司电话</t>
-  </si>
-  <si>
-    <t>Fax 公司传真</t>
-  </si>
-  <si>
-    <t>Email 公司邮箱</t>
-  </si>
-  <si>
-    <t>Year Established 公司成立时间</t>
-  </si>
-  <si>
-    <t>Number of Employees 当前员工数</t>
-  </si>
-  <si>
-    <t>Website 公司网址</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Legal Name of Company/Organization </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
+    <t>当前职位英文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>您的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>公司名称</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legal Structure 公司法律结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Title 工作头衔</t>
-  </si>
-  <si>
-    <t>Job Location 工作地点</t>
-  </si>
-  <si>
-    <t>position type 职位类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Salary 年薪 </t>
-  </si>
-  <si>
-    <t>当前该职位上的雇员数</t>
-  </si>
-  <si>
-    <t>该职位是否需要执照、许可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该职位空闲的月数</t>
-  </si>
-  <si>
-    <t>招聘渠道</t>
-  </si>
-  <si>
-    <t>应聘人数</t>
-  </si>
-  <si>
-    <t>该职位的语言要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该职位的学历要求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Town/City &amp; Postal 所在城市邮编</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇主信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过去12个月该职位解雇人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雇主信息（省提名技术移民或雇主担保类填写）- FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前职位英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLYabroad 技术移民签证申请人总括信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>您的</t>
+      <t>称呼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（邮件中昵称或qq名）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>目前所在</t>
     </r>
     <r>
       <rPr>
@@ -970,7 +861,51 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>称呼</t>
+      <t>国家</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>目前所在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城市</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>听L成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说S成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读R成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人数</t>
     </r>
     <r>
       <rPr>
@@ -980,17 +915,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（邮件中昵称或qq名）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果主申雅思已考，请填写：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>目前所在</t>
+      <t>（只包括主申、配偶、子女）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写W成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主副申、子女</t>
     </r>
     <r>
       <rPr>
@@ -1000,17 +935,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>国家</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅思考试时间（最好成绩）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>目前所在</t>
+      <t>户口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否在一个户口本上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>结婚登记日期（</t>
     </r>
     <r>
       <rPr>
@@ -1020,25 +961,23 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>城市</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>听L成绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说S成绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>读R成绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>申请</t>
+      <t>结婚证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上日期，如已婚）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>与使馆沟通的</t>
     </r>
     <r>
       <rPr>
@@ -1048,7 +987,106 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>人数</t>
+      <t>固定电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（包括区号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>与使馆沟通的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动电话</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打算登陆的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>省份\州及城市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（移民目的地）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平时咨询FLYabroad所用Email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从哪了解到FLYabroad（请选择）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主申</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能力（请简述）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>副申</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法语</t>
     </r>
     <r>
       <rPr>
@@ -1058,18 +1096,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（只包括主申、配偶、子女）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写W成绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主副申、子女</t>
-    </r>
+      <t>能力（请简述）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打算一次性支付还是分次支付？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1078,6 +1113,89 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亲属主要指是姑叔姨舅，父母，兄弟姐妹，堂兄弟姐妹等，尤其是直系亲属；国家可以是加拿大、魁北克、澳大利亚、新西兰、美国、日本等。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果有父母过世，请在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>写过世，具体地址填写过世</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年月日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。出生地具体到县或市，与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>户口</t>
     </r>
     <r>
@@ -1088,17 +1206,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是否在一个户口本上</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否打算再考</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>结婚登记日期（</t>
+      <t>保持一致。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注意：主副申请工作标签部分的</t>
     </r>
     <r>
       <rPr>
@@ -1108,98 +1222,368 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>结婚证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上日期，如已婚）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果主申雅思未考：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>与使馆沟通的</t>
+      <t>工作起止时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要求的是</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年-月-日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>固定电话</t>
-    </r>
-    <r>
-      <rPr>
+      <t>（使馆要求），有合同的话日期与合同一致，没有合同</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（包括区号）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计报名时间或已经报名时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>与使馆沟通的</t>
+      <t>大略估计一天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，只要不是周末就可以（使馆也不会那么较真）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发证机构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按时间分阶段分别写明当时职位及该职位5-10条核心职责(包括</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参与项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（ALT+回车换行）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主申请著作与出版物 - FLYabroad 信息表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刊物名称或书名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者（专著还是合著）</t>
+  </si>
+  <si>
+    <t>文章名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副申请著作与出版物 - FLYabroad 信息表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>协会性质或类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 主申请</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（2）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 主申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上上家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（3）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 主申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再上家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（4）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 主申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（5）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLYabroad 主申请公司工作信息（6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 主申请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（7）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLYabroad 主申请公司工作信息（8）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 副申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最近</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（1）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 副申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（2）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 副申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上上家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（3）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 副申请</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再上家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司工作信息（4）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>移动电话</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>听L自评（高，中，一般）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与使馆沟通的email（gmail，hotmail）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说S自评（高，中，一般）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>读R自评（高，中，一般）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>打算登陆的</t>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该信息表格上的</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>省份\州及城市</t>
+      <t xml:space="preserve">统一使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年-月-日</t>
     </r>
     <r>
       <rPr>
@@ -1208,43 +1592,65 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>（移民目的地）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写W自评（高，中，一般）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副申英语能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平时咨询FLYabroad所用Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主副申法语能力：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从哪了解到FLYabroad（请选择）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主申</t>
+      <t xml:space="preserve"> 的格式：1998-10-21，2004-07 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,例如出生年月日，毕业年月，开始工作年月日等。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照签发日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证签发日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证到期日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体居住地址及邮编（具体到门牌号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>具体居住</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址及邮编</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>法语</t>
+      <t>（具体到门牌号）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">公司（机构）地址，具体到门牌号
+</t>
     </r>
     <r>
       <rPr>
@@ -1253,233 +1659,106 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>能力（请简述）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>副申</t>
+      <t>实际地址或经营地址或信头纸地址</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">首选移民目的地 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打算申请的移民</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>能力（请简述）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打算一次性支付还是分次支付？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与使馆通信的地址、邮编及收件人（使馆信件可能发送到这里，地址要安全）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与FLYabroad通信的地址、邮编及收件人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">您较方便的银行 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否有</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与使馆沟通的email（留给使馆的）最好使用gmail，hotmail，live，msn，yahoo等国际邮箱，尽量不要使用sina，163，tom，sohu等国内运营商邮箱。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>FLYaborad 会提供给您对您最方便的银行账号，一次性支付9折优惠具体可以参看合约。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意只有省提名技术移民或雇主担保技术移民需要填写该信息，一般技术移民不用填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国外可加分亲属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（注明是或否）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否曾经申请过</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>亲属主要指是姑叔姨舅，父母，兄弟姐妹，堂兄弟姐妹等，尤其是直系亲属；国家可以是加拿大、魁北克、澳大利亚、新西兰、美国、日本等。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移民签证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？类别及结果</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad 主申请</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如果有父母过世，请在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前职业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>写过世，具体地址填写过世</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年月日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。出生地具体到县或市，与</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>户口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>保持一致。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该信息表格上的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日期格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">统一使用 </t>
+      <t>最近</t>
     </r>
     <r>
       <rPr>
@@ -1488,98 +1767,29 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>年-月-日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 的格式：1998-10-21，2004-07 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,例如出生年月日，毕业年月，开始工作年月日等。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注意：主副申请工作标签部分的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工作起止时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要求的是</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>公司工作信息（1）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按时间分阶段分别写明当时职位及该职位5-10条核心职责(包括</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>年-月-日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（使馆要求），有合同的话日期与合同一致，没有合同</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大略估计一天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，只要不是周末就可以（使馆也不会那么较真）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发证机构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>按时间分阶段分别写明当时职位及该职位5-10条核心职责(包括</t>
+      <t>参与项目）（ALT+回车换行)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">公司（机构）中文全称
+</t>
     </r>
     <r>
       <rPr>
@@ -1588,293 +1798,89 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>参与项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）（ALT+回车换行）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主申请著作与出版物 - FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刊物名称或书名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者（专著还是合著）</t>
-  </si>
-  <si>
-    <t>文章名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副申请著作与出版物 - FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否加入社团或协会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>协会名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>协会性质或类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人参与社团或协会信息（如果有）- FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 主申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（2）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 主申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上上家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（3）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 主申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再上家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（4）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 主申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（5）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLYabroad 主申请公司工作信息（6）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 主申请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（7）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLYabroad 主申请公司工作信息（8）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 副申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（1）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 副申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（2）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 副申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上上家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（3）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 副申请</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>再上家</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（4）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">信息表格填写完整后请通过email将发生到 </t>
+      <t>参考合同、信头纸、网站</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆或到达过的该国城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要填名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别（A或G）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭净资产（包括房产、股票、债券、存款）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
     </r>
     <r>
       <rPr>
         <b/>
         <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您在FLY论坛的账号（没有请注册一个，客服用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信息表格填写要完整，信息表格不需要签约前就填写完整，到时您可以的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>zixun@flyabroadvisa.com</t>
+      <t>简历</t>
     </r>
     <r>
       <rPr>
@@ -1884,7 +1890,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ，请同时将您的</t>
+      <t>（平时用的求职简历即可，中英文皆可）一同发送 FLYabroad 。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主申雅思：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副申雅思：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Report Form Number(TRF)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭负债（例如房贷）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可提供</t>
     </r>
     <r>
       <rPr>
@@ -1894,333 +1926,296 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>简历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（平时用的求职简历即可，中英文皆可）一同发送 FLYabroad 。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t>存款数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（外币的话换算为人民币金额）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否加入社团或协会（党，社，派）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是会员，如是请提供github账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证签发机关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主、副申请前配偶信息（如果有）- FLYabroad 信息表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人服兵役信息（如果有）- FLYabroad 信息表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人参与社团或协会信息（如果有）- FLYabroad 信息表格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该信息表格上的</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期格式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">统一使用 </t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年-月-日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 的格式：1998-10-21，2004-07 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,例如出生年月日，毕业年月，开始工作年月日等。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签证申请人基本信息 - FLYabroad 信息表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护照签发日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证签发日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证到期日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体居住地址及邮编（具体到门牌号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>具体居住</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址及邮编</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（具体到门牌号）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">公司（机构）地址，具体到门牌号
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际地址或经营地址或信头纸地址</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">首选移民目的地 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>打算申请的移民</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否参加了考试，如已考，请注明成绩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭净资产（包括房产、股票、债券、存款）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>可提供的</t>
-    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存款数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（人民币，多多益善）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">您较方便的银行 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否有</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国外可加分亲属</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（注明是或否）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>是否曾经申请过</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>移民签证</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？类别及结果</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：该信息表一共有12个表单，醒目的条框为必填项；初次仅仅是评估的话可以仅填必填项；对于打算委托FLYabroad的申请人，需要填写所有适用您的信息项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FLYabroad 主申请</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公司工作信息（1）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>按时间分阶段分别写明当时职位及该职位5-10条核心职责(包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参与项目）（ALT+回车换行)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">公司（机构）中文全称
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参考合同、信头纸、网站</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆或到达过的该国城市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLYabroad  @Copyright 飞出国 From 2005</t>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FLYabroad  @ Copyright From</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2005</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护照签发地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否同时持有其他国家护照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主申雅思考试日期或预计报名考试时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副申雅思考试日期或预计报名考试时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法语能力：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与使馆通信的地址、邮编及收件人（地址要安全，如方便请同时提供地址的英文翻译）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLYabroad 技术移民签证申请人总括信息（飞出国）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签证申请人基本信息 - FLYabroad 信息表格（飞出国）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主申请近10年工作职责信息（请如实、详实填写核心职责） - FLYabroad 信息表格（飞出国）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主申请人高等教育信息（中专，技校，专、本、硕、博，从最近写起）- FLYabroad 信息表格（飞出国）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副申请人高等教育信息（中专，技校，专、本、硕、博，从最近写起）- FLYabroad 信息表格（飞出国）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有其它国家永久居民身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：该信息表有10多个表单，对于打算委托FLYabroad的申请人，需要填写所有适用您的信息项，初次评估建议在线评估；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2228,7 +2223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2271,12 +2266,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
@@ -2284,20 +2273,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
@@ -2338,19 +2313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -2374,8 +2336,69 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2406,14 +2429,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2526,38 +2543,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2567,10 +2564,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2588,16 +2585,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2618,13 +2615,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -2639,253 +2636,262 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2894,41 +2900,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2938,91 +2932,26 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -3057,7 +2986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3092,7 +3021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3304,305 +3233,303 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.375" customWidth="1"/>
     <col min="2" max="2" width="37.625" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
+      <c r="A1" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="56" t="s">
-        <v>210</v>
+      <c r="C2" s="71" t="s">
+        <v>240</v>
       </c>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="24" t="s">
-        <v>212</v>
+      <c r="C3" s="60" t="s">
+        <v>261</v>
       </c>
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="24" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="54" t="s">
-        <v>282</v>
+      <c r="A5" s="48" t="s">
+        <v>225</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="25"/>
+        <v>179</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="54" t="s">
-        <v>283</v>
+      <c r="A6" s="48" t="s">
+        <v>226</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="24" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="24" t="s">
-        <v>220</v>
+      <c r="C8" s="62" t="s">
+        <v>244</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
-        <v>222</v>
+      <c r="C9" s="59" t="s">
+        <v>235</v>
       </c>
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="24" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="24" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="24" t="s">
-        <v>226</v>
+      <c r="C11" s="71" t="s">
+        <v>241</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="24" t="s">
-        <v>227</v>
+      <c r="A12" s="60" t="s">
+        <v>236</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="24" t="s">
-        <v>228</v>
+      <c r="C12" s="60" t="s">
+        <v>262</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="55" t="s">
-        <v>285</v>
+      <c r="A13" s="60" t="s">
+        <v>243</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="24" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="54" t="s">
-        <v>286</v>
+      <c r="A14" s="64" t="s">
+        <v>245</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="24" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="24" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="24" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="54" t="s">
-        <v>288</v>
+      <c r="A16" s="48" t="s">
+        <v>228</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="30" t="s">
-        <v>234</v>
+      <c r="C16" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="24" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="32" t="s">
-        <v>236</v>
+      <c r="C17" s="62" t="s">
+        <v>244</v>
       </c>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A24" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A25" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.25">
+      <c r="A29" s="73" t="s">
         <v>237</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="58" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="42"/>
-      <c r="C22" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="69"/>
-    </row>
-    <row r="23" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A23" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="86"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="81" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="73" t="s">
-        <v>273</v>
       </c>
       <c r="B29" s="74"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
-      <c r="A30" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="10">
+  <mergeCells count="7">
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A25:D25"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
@@ -3612,10 +3539,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"加拿大联邦技术移民,魁北克技术移民,澳大利亚技术移民,加拿大省提名技术,加拿大省提名亲属担保,澳洲亲属担保移民,请FLY帮助确定,随便"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"google,baidu,其他论坛,朋友介绍,QQ、MSN群,博客,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>"招商银行,中国银行,建设银行,工商银行,随便"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3629,7 +3556,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3644,17 +3571,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
@@ -3673,7 +3600,7 @@
         <v>88</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>89</v>
@@ -3681,8 +3608,8 @@
       <c r="H2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>279</v>
+      <c r="I2" s="47" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3782,17 +3709,17 @@
       <c r="I10" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
@@ -3811,7 +3738,7 @@
         <v>88</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>89</v>
@@ -3819,8 +3746,8 @@
       <c r="H14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="53" t="s">
-        <v>279</v>
+      <c r="I14" s="47" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3920,30 +3847,30 @@
       <c r="I22" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
+      <c r="A25" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A26" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="A26" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3963,7 +3890,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3980,45 +3907,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A1" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4110,45 +4037,45 @@
       <c r="I10" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="A12" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:9" ht="27">
       <c r="A13" s="27" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G13" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4240,30 +4167,30 @@
       <c r="I21" s="1"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+      <c r="A23" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="A24" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4283,7 +4210,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G15"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4302,56 +4229,56 @@
     <col min="12" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="114" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4434,27 +4361,27 @@
       <c r="K7" s="19"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="14.25">
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
+        <v>249</v>
+      </c>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>4</v>
@@ -4463,24 +4390,24 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4494,7 +4421,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4508,7 +4435,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4522,7 +4449,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4535,44 +4462,44 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="120"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.25">
+      <c r="A15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
+        <v>149</v>
+      </c>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4588,7 +4515,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4599,7 +4526,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4610,7 +4537,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4619,36 +4546,36 @@
       <c r="F21" s="1"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25">
+    <row r="23" spans="1:7" ht="18.75">
       <c r="A23" s="119" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
+        <v>150</v>
+      </c>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4658,7 +4585,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="37"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="19"/>
       <c r="G25" s="1"/>
     </row>
@@ -4689,21 +4616,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.25">
+    <row r="29" spans="1:7" ht="18.75">
       <c r="A29" s="119" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
+        <v>250</v>
+      </c>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="24"/>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>77</v>
@@ -4712,13 +4639,13 @@
         <v>71</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4733,50 +4660,50 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
+      <c r="A32" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75">
+      <c r="A33" s="119" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="24"/>
-      <c r="B34" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>260</v>
+      <c r="E34" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4793,7 +4720,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4804,16 +4731,16 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A37" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
+      <c r="A37" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4832,262 +4759,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="121" t="s">
-        <v>246</v>
-      </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.25">
-      <c r="A20" s="90" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"新职位（new position）,联合职位（union position）,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
-      <formula1>"Newspapers,Industry Publications,Company Website,Internet Job Sites,Recruitment Agency Job Fairs,Other"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A20:D20" r:id="rId1" display="FLYabroad  @ Copyright 2005-2009"/>
-  </hyperlinks>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E37"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="30.75" style="41" customWidth="1"/>
+    <col min="2" max="5" width="30.75" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="A1" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5137,7 +4846,7 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="7"/>
@@ -5146,10 +4855,10 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -5174,7 +4883,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -5209,7 +4918,7 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="68" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="7"/>
@@ -5218,8 +4927,8 @@
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="24" t="s">
-        <v>277</v>
+      <c r="A17" s="66" t="s">
+        <v>248</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -5228,7 +4937,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -5237,7 +4946,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
-        <v>6</v>
+        <v>221</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -5245,8 +4954,8 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24" t="s">
-        <v>276</v>
+      <c r="A20" s="68" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -5254,8 +4963,8 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24" t="s">
-        <v>7</v>
+      <c r="A21" s="66" t="s">
+        <v>259</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -5264,7 +4973,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="24" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5273,7 +4982,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="24" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -5281,8 +4990,8 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24" t="s">
-        <v>101</v>
+      <c r="A24" s="66" t="s">
+        <v>260</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -5290,8 +4999,8 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="24" t="s">
-        <v>207</v>
+      <c r="A25" s="66" t="s">
+        <v>270</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -5300,7 +5009,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="24" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -5309,7 +5018,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -5318,106 +5027,142 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="24" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>82</v>
-      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="24" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>82</v>
-      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="24" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>82</v>
-      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="24" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="24" t="s">
-        <v>24</v>
+      <c r="A32" s="68" t="s">
+        <v>20</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="54" t="s">
-        <v>13</v>
+      <c r="A33" s="68" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="D33" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="24" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="D34" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.25">
-      <c r="A37" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25">
+      <c r="A41" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5432,8 +5177,8 @@
   </sheetPr>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:K30"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5451,52 +5196,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-    </row>
-    <row r="2" spans="1:11" s="60" customFormat="1">
-      <c r="A2" s="59" t="s">
+      <c r="A1" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" s="51" customFormat="1">
+      <c r="A2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="50" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5509,7 +5254,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="36"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>37</v>
@@ -5595,107 +5340,107 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
+        <v>171</v>
+      </c>
+      <c r="B10" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
     </row>
     <row r="15" spans="1:11" ht="14.25">
-      <c r="A15" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-    </row>
-    <row r="16" spans="1:11" s="60" customFormat="1">
-      <c r="A16" s="59" t="s">
+      <c r="A15" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+    </row>
+    <row r="16" spans="1:11" s="51" customFormat="1">
+      <c r="A16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="50" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5794,59 +5539,59 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
+        <v>171</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="5"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="14"/>
@@ -5862,37 +5607,38 @@
       <c r="K28" s="28"/>
     </row>
     <row r="29" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A29" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
+      <c r="A29" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
     </row>
     <row r="30" spans="1:11" ht="14.25">
-      <c r="A30" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
+      <c r="A30" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B27:K27"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A15:K15"/>
@@ -5904,7 +5650,6 @@
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5920,10 +5665,10 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="46.375" customWidth="1"/>
@@ -5937,31 +5682,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="98" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="F2" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="A2" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="F2" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6040,10 +5785,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="30"/>
       <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
@@ -6058,7 +5803,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="1"/>
@@ -6076,7 +5821,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="5"/>
@@ -6090,44 +5835,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
-      <c r="A10" s="99" t="s">
-        <v>292</v>
-      </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
+      <c r="A10" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
+      <c r="F10" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="240.75" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="11.25" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="F13" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="A13" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="F13" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6256,29 +6001,29 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="A21" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="97" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
+      <c r="F21" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6313,7 +6058,7 @@
       <selection activeCell="F13" sqref="F13:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="46.375" customWidth="1"/>
@@ -6327,31 +6072,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="A1" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="F2" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="A2" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="F2" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6480,44 +6225,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="246" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="F13" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="A13" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="F13" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -6646,29 +6391,29 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6703,7 +6448,7 @@
       <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="46.875" customWidth="1"/>
@@ -6717,31 +6462,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25">
-      <c r="A1" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="97" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="F2" s="97" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="A2" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="F2" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6820,7 +6565,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="9"/>
@@ -6838,7 +6583,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="52" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="1"/>
@@ -6856,7 +6601,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="52" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="5"/>
@@ -6870,44 +6615,44 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
     </row>
     <row r="11" spans="1:9" ht="252" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="80"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="6" customHeight="1"/>
     <row r="13" spans="1:9">
-      <c r="A13" s="97" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="F13" s="97" t="s">
-        <v>272</v>
-      </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="A13" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="F13" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -7036,29 +6781,29 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="97" t="s">
+      <c r="F21" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
     </row>
     <row r="22" spans="1:9" ht="167.25" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -7086,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7105,17 +6850,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="27">
@@ -7147,13 +6892,15 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="5" t="s">
         <v>54</v>
       </c>
@@ -7163,7 +6910,7 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="5"/>
@@ -7179,7 +6926,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="5"/>
@@ -7195,7 +6942,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="5"/>
@@ -7209,7 +6956,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="5"/>
@@ -7223,7 +6970,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="5"/>
@@ -7237,7 +6984,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="5"/>
@@ -7251,17 +6998,17 @@
       <c r="J9" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
     </row>
     <row r="12" spans="1:10" ht="27">
       <c r="A12" s="2"/>
@@ -7291,13 +7038,15 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="57" t="s">
+        <v>234</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="5" t="s">
         <v>54</v>
       </c>
@@ -7306,7 +7055,7 @@
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="5"/>
@@ -7321,7 +7070,7 @@
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="5"/>
@@ -7336,7 +7085,7 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B16" s="5"/>
@@ -7349,7 +7098,7 @@
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="5"/>
@@ -7362,7 +7111,7 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="5"/>
@@ -7386,30 +7135,30 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
     </row>
     <row r="23" spans="1:9" ht="27">
       <c r="A23" s="2"/>
@@ -7439,7 +7188,7 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="5"/>
@@ -7454,7 +7203,7 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="5"/>
@@ -7469,7 +7218,7 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="5"/>
@@ -7484,7 +7233,7 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="31" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="5"/>
@@ -7497,7 +7246,7 @@
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="5"/>
@@ -7510,17 +7259,17 @@
       <c r="I28" s="5"/>
     </row>
     <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
     </row>
     <row r="31" spans="1:9" ht="27">
       <c r="A31" s="2"/>
@@ -7621,17 +7370,17 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="14.25">
-      <c r="A37" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
+      <c r="A37" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7653,8 +7402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7669,38 +7418,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="A1" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="27">
       <c r="A2" s="18"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>293</v>
+      <c r="D2" s="53" t="s">
+        <v>232</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="53" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -7714,12 +7463,12 @@
       <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="64"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="5"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -7729,12 +7478,12 @@
       <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="64"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="5"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -7744,12 +7493,12 @@
       <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="64"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="5"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -7759,12 +7508,12 @@
       <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="5"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -7774,12 +7523,12 @@
       <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="5"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -7789,12 +7538,12 @@
       <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="64"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="5"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -7804,12 +7553,12 @@
       <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="64"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="5"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -7819,47 +7568,47 @@
       <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="64"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="5"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A11" s="109" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
+      <c r="A11" s="112" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8"/>
-      <c r="B12" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="44"/>
+      <c r="B12" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="116"/>
+      <c r="D12" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="39"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -7867,12 +7616,12 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="8"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -7880,12 +7629,12 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="8"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -7893,42 +7642,42 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="8"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="109" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
+      <c r="A16" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="27">
       <c r="A17" s="18"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>293</v>
+      <c r="D17" s="53" t="s">
+        <v>232</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>74</v>
@@ -7936,7 +7685,7 @@
       <c r="F17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="53" t="s">
         <v>73</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -7950,12 +7699,12 @@
       <c r="A18" s="17">
         <v>1</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="5"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -7965,12 +7714,12 @@
       <c r="A19" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="5"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -7980,12 +7729,12 @@
       <c r="A20" s="17">
         <v>3</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="64"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="5"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -7995,12 +7744,12 @@
       <c r="A21" s="17">
         <v>4</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="64"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="5"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -8010,12 +7759,12 @@
       <c r="A22" s="17">
         <v>5</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="64"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="5"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -8025,12 +7774,12 @@
       <c r="A23" s="17">
         <v>6</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="64"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="5"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -8040,12 +7789,12 @@
       <c r="A24" s="17">
         <v>7</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="64"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="5"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -8060,43 +7809,43 @@
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="64"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="5"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" ht="14.25">
-      <c r="A26" s="109" t="s">
-        <v>255</v>
-      </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
+      <c r="A26" s="112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="8"/>
-      <c r="B27" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="44"/>
+      <c r="B27" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="116"/>
+      <c r="D27" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="39"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -8104,12 +7853,12 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="8"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -8117,12 +7866,12 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="8"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -8130,43 +7879,43 @@
     </row>
     <row r="30" spans="1:11" ht="13.5" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="110" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
+      <c r="A31" s="113" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A32" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
+      <c r="A32" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
@@ -8407,8 +8156,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A32:H32"/>
@@ -8421,6 +8168,8 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -8434,7 +8183,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:G25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8447,15 +8196,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -8477,8 +8226,8 @@
       <c r="F2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>280</v>
+      <c r="G2" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -8609,15 +8358,15 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16.350000000000001" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -8639,8 +8388,8 @@
       <c r="F13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="52" t="s">
-        <v>280</v>
+      <c r="G13" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -8783,29 +8532,29 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A25" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="A25" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
